--- a/scripts/DFT8sample.xlsx
+++ b/scripts/DFT8sample.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\Ramon\D2105\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udi\work\Ramon\D2705\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3856A-21A9-4144-B33E-E410ED30F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB831ED-ACE6-4765-AA15-B73674C9E234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFD5197E-4B89-483F-91FC-0DEEC581346E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CFD5197E-4B89-483F-91FC-0DEEC581346E}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון2" sheetId="2" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>I2</t>
   </si>
@@ -102,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +112,26 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -191,10 +205,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,12 +219,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="רע" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A963E84-4ABF-4ED9-B913-B5399F24A3A8}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE31" sqref="AE31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,8 +556,9 @@
     <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -561,10 +580,10 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
@@ -579,10 +598,10 @@
       <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="U1" t="s">
@@ -665,11 +684,11 @@
         <f>G4*J2+H4*I2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <f>G2+K2</f>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <f>H2+L2</f>
         <v>0</v>
       </c>
@@ -687,11 +706,11 @@
         <f>M6*P2+N6*O2</f>
         <v>0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="13">
         <f>M2+Q2</f>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="13">
         <f>N2+R2</f>
         <v>0</v>
       </c>
@@ -779,11 +798,11 @@
         <f>G5*J3+H5*I3</f>
         <v>-32766</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <f>G3+K3</f>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="9">
         <f>H3+L3</f>
         <v>-32766</v>
       </c>
@@ -801,11 +820,11 @@
         <f t="shared" ref="R3:R5" si="9">M7*P3+N7*O3</f>
         <v>-32766</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="13">
         <f t="shared" ref="S3:S5" si="10">M3+Q3</f>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="13">
         <f t="shared" ref="T3:T5" si="11">N3+R3</f>
         <v>-65532</v>
       </c>
@@ -824,11 +843,11 @@
         <v>-65532</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y17" si="14">S3+W3</f>
+        <f t="shared" ref="Y3:Y9" si="14">S3+W3</f>
         <v>-2.0071607136767922E-12</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z17" si="15">T3+X3</f>
+        <f t="shared" ref="Z3:Z9" si="15">T3+X3</f>
         <v>-131064</v>
       </c>
       <c r="AD3" s="1">
@@ -893,11 +912,11 @@
         <f>G4*J4+H4*I4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <f>G2+K4</f>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <f>H2+L4</f>
         <v>0</v>
       </c>
@@ -915,11 +934,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="13">
         <f t="shared" si="10"/>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1007,11 +1026,11 @@
         <f>G5*J5+H5*I5</f>
         <v>32766</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="11">
         <f>G3+K5</f>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <f>H3+L5</f>
         <v>32766</v>
       </c>
@@ -1029,11 +1048,11 @@
         <f t="shared" si="9"/>
         <v>-32766</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="13">
         <f t="shared" si="10"/>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1121,11 +1140,11 @@
         <f>G8*J6+H8*I6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="11">
         <f>G6+K6</f>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="9">
         <f>H6+L6</f>
         <v>0</v>
       </c>
@@ -1143,11 +1162,11 @@
         <f>M6*P6+N6*O6</f>
         <v>0</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="13">
         <f>M2+Q6</f>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="13">
         <f>N2+R6</f>
         <v>0</v>
       </c>
@@ -1235,11 +1254,11 @@
         <f>G9*J7+H9*I7</f>
         <v>-23169.060792358418</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="11">
         <f>G7+K7</f>
         <v>23169.060792358414</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="9">
         <f>H7+L7</f>
         <v>-23169.060792358418</v>
       </c>
@@ -1257,11 +1276,11 @@
         <f t="shared" ref="R7:R9" si="19">M7*P7+N7*O7</f>
         <v>32766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="13">
         <f t="shared" ref="S7:T7" si="20">M3+Q7</f>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="13">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -1349,11 +1368,11 @@
         <f>G8*J8+H8*I8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="11">
         <f>G6+K8</f>
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="9">
         <f>H6+L8</f>
         <v>0</v>
       </c>
@@ -1371,11 +1390,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="13">
         <f t="shared" ref="S8:T8" si="21">M4+Q8</f>
         <v>2.0071607136767922E-12</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="13">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -1463,11 +1482,11 @@
         <f>G9*J9+H9*I9</f>
         <v>23169.060792358418</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <f>G7+K9</f>
         <v>23169.060792358414</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="9">
         <f>H7+L9</f>
         <v>23169.060792358418</v>
       </c>
@@ -1485,11 +1504,11 @@
         <f t="shared" si="19"/>
         <v>32766</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="13">
         <f t="shared" ref="S9:T9" si="22">M5+Q9</f>
         <v>-2.0071607136767922E-12</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="13">
         <f t="shared" si="22"/>
         <v>65532</v>
       </c>
@@ -1571,11 +1590,11 @@
         <f>G12*J10+H12*I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="10">
         <f>G10+K10</f>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="9">
         <f>H10+L10</f>
         <v>0</v>
       </c>
@@ -1593,11 +1612,11 @@
         <f>M14*P10+N14*O10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="13">
         <f>M10+Q10</f>
         <v>-8.1854523159563541E-12</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="13">
         <f>N10+R10</f>
         <v>0</v>
       </c>
@@ -1679,11 +1698,11 @@
         <f>G13*J11+H13*I11</f>
         <v>-30271.836762264822</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <f>G11+K11</f>
         <v>12539.005344874529</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="9">
         <f>H11+L11</f>
         <v>-30271.836762264822</v>
       </c>
@@ -1701,11 +1720,11 @@
         <f t="shared" ref="R11:R13" si="26">M15*P11+N15*O11</f>
         <v>-30271.836762264826</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="13">
         <f t="shared" ref="S11:S13" si="27">M11+Q11</f>
         <v>25078.010689749055</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="13">
         <f t="shared" ref="T11:T13" si="28">N11+R11</f>
         <v>-60543.673524529644</v>
       </c>
@@ -1787,11 +1806,11 @@
         <f>G12*J12+H12*I12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="11">
         <f>G10+K12</f>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="9">
         <f>H10+L12</f>
         <v>0</v>
       </c>
@@ -1809,11 +1828,11 @@
         <f t="shared" si="26"/>
         <v>-8.1854523159563541E-12</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="13">
         <f t="shared" si="27"/>
         <v>5.0141971288110563E-28</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="13">
         <f t="shared" si="28"/>
         <v>-8.1854523159563541E-12</v>
       </c>
@@ -1895,11 +1914,11 @@
         <f>G13*J13+H13*I13</f>
         <v>30271.836762264822</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="11">
         <f>G11+K13</f>
         <v>12539.005344874529</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="9">
         <f>H11+L13</f>
         <v>30271.836762264822</v>
       </c>
@@ -1917,11 +1936,11 @@
         <f t="shared" si="26"/>
         <v>-30271.836762264829</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="13">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="13">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -2003,11 +2022,11 @@
         <f>G16*J14+H16*I14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="11">
         <f>G14+K14</f>
         <v>-8.1854523159563541E-12</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="9">
         <f>H14+L14</f>
         <v>0</v>
       </c>
@@ -2025,11 +2044,11 @@
         <f>M14*P14+N14*O14</f>
         <v>1.0028394257622113E-27</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="13">
         <f>M10+Q14</f>
         <v>8.1854523159563541E-12</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="13">
         <f>N10+R14</f>
         <v>1.0028394257622113E-27</v>
       </c>
@@ -2111,11 +2130,11 @@
         <f>G17*J15+H17*I15</f>
         <v>-12539.005344874542</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="11">
         <f>G15+K15</f>
         <v>30271.836762264818</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="9">
         <f>H15+L15</f>
         <v>-12539.005344874542</v>
       </c>
@@ -2133,11 +2152,11 @@
         <f t="shared" ref="R15:R17" si="37">M15*P15+N15*O15</f>
         <v>30271.836762264829</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="13">
         <f t="shared" ref="S15:T15" si="38">M11+Q15</f>
         <v>0</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="13">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -2219,11 +2238,11 @@
         <f>G16*J16+H16*I16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="11">
         <f>G14+K16</f>
         <v>8.1854523159563541E-12</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="9">
         <f>H14+L16</f>
         <v>0</v>
       </c>
@@ -2241,11 +2260,11 @@
         <f t="shared" si="37"/>
         <v>8.1854523159563541E-12</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="13">
         <f t="shared" ref="S16:T16" si="40">M12+Q16</f>
         <v>-1.5042591386433169E-27</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="13">
         <f t="shared" si="40"/>
         <v>8.1854523159563541E-12</v>
       </c>
@@ -2327,11 +2346,11 @@
         <f>G17*J17+H17*I17</f>
         <v>12539.005344874542</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <f>G15+K17</f>
         <v>30271.836762264818</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="9">
         <f>H15+L17</f>
         <v>12539.005344874542</v>
       </c>
@@ -2349,11 +2368,11 @@
         <f t="shared" si="37"/>
         <v>30271.836762264829</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="13">
         <f t="shared" ref="S17:T17" si="42">M13+Q17</f>
         <v>25078.010689749044</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="13">
         <f t="shared" si="42"/>
         <v>60543.673524529651</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ref="G21:J21" si="45">RIGHT(DEC2HEX(G2),4)</f>
+        <f t="shared" ref="G21:H21" si="45">RIGHT(DEC2HEX(G2),4)</f>
         <v>0</v>
       </c>
       <c r="H21" t="str">
@@ -2428,18 +2447,18 @@
         <v>0</v>
       </c>
       <c r="K21" t="str">
-        <f>RIGHT(DEC2HEX(K2),5)</f>
+        <f>RIGHT(DEC2HEX(K2/2),4)</f>
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f>RIGHT(DEC2HEX(L2),5)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" ref="M21:N21" si="46">RIGHT(DEC2HEX(M2),5)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" t="str">
+        <f>RIGHT(DEC2HEX(L2/2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="str">
+        <f t="shared" ref="M21" si="46">RIGHT(DEC2HEX(M2),5)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="str">
         <f>RIGHT(DEC2HEX(N2),5)</f>
         <v>0</v>
       </c>
@@ -2459,11 +2478,11 @@
         <f>RIGHT(DEC2HEX(R2),5)</f>
         <v>0</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S21" s="9" t="str">
         <f>RIGHT(DEC2HEX(S2),6)</f>
         <v>0</v>
       </c>
-      <c r="T21" t="str">
+      <c r="T21" s="9" t="str">
         <f>RIGHT(DEC2HEX(T2),5)</f>
         <v>0</v>
       </c>
@@ -2518,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:J22" si="50">RIGHT(DEC2HEX(G3),4)</f>
+        <f t="shared" ref="G22:H22" si="50">RIGHT(DEC2HEX(G3),4)</f>
         <v>0</v>
       </c>
       <c r="H22" t="str">
@@ -2534,18 +2553,18 @@
         <v>C001</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:L22" si="52">RIGHT(DEC2HEX(K3),5)</f>
+        <f t="shared" ref="K22:L22" si="52">RIGHT(DEC2HEX(K3/2),4)</f>
         <v>0</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="52"/>
-        <v>F8002</v>
-      </c>
-      <c r="M22" t="str">
+        <v>C001</v>
+      </c>
+      <c r="M22" s="9" t="str">
         <f t="shared" ref="M22:N22" si="53">RIGHT(DEC2HEX(M3),5)</f>
         <v>0</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22" s="9" t="str">
         <f t="shared" si="53"/>
         <v>F8002</v>
       </c>
@@ -2562,14 +2581,14 @@
         <v>0</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" ref="Q22:R22" si="56">RIGHT(DEC2HEX(R3),5)</f>
+        <f t="shared" ref="R22" si="56">RIGHT(DEC2HEX(R3),5)</f>
         <v>F8002</v>
       </c>
-      <c r="S22" t="str">
-        <f t="shared" ref="S22:T22" si="57">RIGHT(DEC2HEX(S3),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" t="str">
+      <c r="S22" s="9" t="str">
+        <f t="shared" ref="S22" si="57">RIGHT(DEC2HEX(S3),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="9" t="str">
         <f t="shared" ref="T22:T36" si="58">RIGHT(DEC2HEX(T3),5)</f>
         <v>F0004</v>
       </c>
@@ -2624,7 +2643,7 @@
         <v>3FFF</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23:J23" si="62">RIGHT(DEC2HEX(G4),4)</f>
+        <f t="shared" ref="G23:H23" si="62">RIGHT(DEC2HEX(G4),4)</f>
         <v>0</v>
       </c>
       <c r="H23" t="str">
@@ -2640,18 +2659,18 @@
         <v>0</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" ref="K23:L23" si="64">RIGHT(DEC2HEX(K4),5)</f>
+        <f t="shared" ref="K23:L23" si="64">RIGHT(DEC2HEX(K4/2),4)</f>
         <v>0</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="9" t="str">
         <f t="shared" ref="M23:N23" si="65">RIGHT(DEC2HEX(M4),5)</f>
         <v>0</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N23" s="9" t="str">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
@@ -2668,14 +2687,14 @@
         <v>0</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" ref="Q23:R23" si="67">RIGHT(DEC2HEX(R4),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" ref="S23:T23" si="68">RIGHT(DEC2HEX(S4),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" t="str">
+        <f t="shared" ref="R23" si="67">RIGHT(DEC2HEX(R4),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f t="shared" ref="S23" si="68">RIGHT(DEC2HEX(S4),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>C001</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24:J24" si="72">RIGHT(DEC2HEX(G5),4)</f>
+        <f t="shared" ref="G24:H24" si="72">RIGHT(DEC2HEX(G5),4)</f>
         <v>7FFE</v>
       </c>
       <c r="H24" t="str">
@@ -2746,18 +2765,18 @@
         <v>3FFF</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24:L24" si="74">RIGHT(DEC2HEX(K5),5)</f>
+        <f t="shared" ref="K24:L24" si="74">RIGHT(DEC2HEX(K5/2),4)</f>
         <v>0</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="74"/>
-        <v>7FFE</v>
-      </c>
-      <c r="M24" t="str">
+        <v>3FFF</v>
+      </c>
+      <c r="M24" s="9" t="str">
         <f t="shared" ref="M24:N24" si="75">RIGHT(DEC2HEX(M5),5)</f>
         <v>0</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24" s="9" t="str">
         <f t="shared" si="75"/>
         <v>7FFE</v>
       </c>
@@ -2774,14 +2793,14 @@
         <v>0</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" ref="Q24:R24" si="77">RIGHT(DEC2HEX(R5),5)</f>
+        <f t="shared" ref="R24" si="77">RIGHT(DEC2HEX(R5),5)</f>
         <v>F8002</v>
       </c>
-      <c r="S24" t="str">
-        <f t="shared" ref="S24:T24" si="78">RIGHT(DEC2HEX(S5),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" t="str">
+      <c r="S24" s="9" t="str">
+        <f t="shared" ref="S24" si="78">RIGHT(DEC2HEX(S5),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -2836,7 +2855,7 @@
         <v>2D40</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25:J25" si="82">RIGHT(DEC2HEX(G6),4)</f>
+        <f t="shared" ref="G25:H25" si="82">RIGHT(DEC2HEX(G6),4)</f>
         <v>0</v>
       </c>
       <c r="H25" t="str">
@@ -2852,18 +2871,18 @@
         <v>0</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:L25" si="84">RIGHT(DEC2HEX(K6),5)</f>
+        <f t="shared" ref="K25:L25" si="84">RIGHT(DEC2HEX(K6/2),4)</f>
         <v>0</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="9" t="str">
         <f t="shared" ref="M25:N25" si="85">RIGHT(DEC2HEX(M6),5)</f>
         <v>0</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N25" s="9" t="str">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
@@ -2880,14 +2899,14 @@
         <v>0</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" ref="Q25:R25" si="87">RIGHT(DEC2HEX(R6),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" ref="S25:T25" si="88">RIGHT(DEC2HEX(S6),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" t="str">
+        <f t="shared" ref="R25" si="87">RIGHT(DEC2HEX(R6),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9" t="str">
+        <f t="shared" ref="S25" si="88">RIGHT(DEC2HEX(S6),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -2942,7 +2961,7 @@
         <v>D2C0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ref="G26:J26" si="92">RIGHT(DEC2HEX(G7),4)</f>
+        <f t="shared" ref="G26:H26" si="92">RIGHT(DEC2HEX(G7),4)</f>
         <v>5A81</v>
       </c>
       <c r="H26" t="str">
@@ -2958,18 +2977,18 @@
         <v>C001</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K26:L26" si="94">RIGHT(DEC2HEX(K7),5)</f>
+        <f t="shared" ref="K26:L26" si="94">RIGHT(DEC2HEX(K7/2),4)</f>
         <v>0</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="94"/>
-        <v>FA57F</v>
-      </c>
-      <c r="M26" t="str">
+        <v>D2C0</v>
+      </c>
+      <c r="M26" s="9" t="str">
         <f t="shared" ref="M26:N26" si="95">RIGHT(DEC2HEX(M7),5)</f>
         <v>5A81</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N26" s="9" t="str">
         <f t="shared" si="95"/>
         <v>FA57F</v>
       </c>
@@ -2986,14 +3005,14 @@
         <v>0</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" ref="Q26:R26" si="97">RIGHT(DEC2HEX(R7),5)</f>
+        <f t="shared" ref="R26" si="97">RIGHT(DEC2HEX(R7),5)</f>
         <v>7FFE</v>
       </c>
-      <c r="S26" t="str">
-        <f t="shared" ref="S26:T26" si="98">RIGHT(DEC2HEX(S7),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" t="str">
+      <c r="S26" s="9" t="str">
+        <f t="shared" ref="S26" si="98">RIGHT(DEC2HEX(S7),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>2D40</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27:J27" si="102">RIGHT(DEC2HEX(G8),4)</f>
+        <f t="shared" ref="G27:H27" si="102">RIGHT(DEC2HEX(G8),4)</f>
         <v>0</v>
       </c>
       <c r="H27" t="str">
@@ -3064,18 +3083,18 @@
         <v>0</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" ref="K27:L27" si="104">RIGHT(DEC2HEX(K8),5)</f>
+        <f t="shared" ref="K27:L27" si="104">RIGHT(DEC2HEX(K8/2),4)</f>
         <v>0</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M27" s="9" t="str">
         <f t="shared" ref="M27:N27" si="105">RIGHT(DEC2HEX(M8),5)</f>
         <v>0</v>
       </c>
-      <c r="N27" t="str">
+      <c r="N27" s="9" t="str">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
@@ -3092,14 +3111,14 @@
         <v>0</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" ref="Q27:R27" si="107">RIGHT(DEC2HEX(R8),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" ref="S27:T27" si="108">RIGHT(DEC2HEX(S8),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" t="str">
+        <f t="shared" ref="R27" si="107">RIGHT(DEC2HEX(R8),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="9" t="str">
+        <f t="shared" ref="S27" si="108">RIGHT(DEC2HEX(S8),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3154,7 +3173,7 @@
         <v>D2C0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28:J28" si="112">RIGHT(DEC2HEX(G9),4)</f>
+        <f t="shared" ref="G28:H28" si="112">RIGHT(DEC2HEX(G9),4)</f>
         <v>5A81</v>
       </c>
       <c r="H28" t="str">
@@ -3170,18 +3189,18 @@
         <v>3FFF</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" ref="K28:L28" si="114">RIGHT(DEC2HEX(K9),5)</f>
+        <f t="shared" ref="K28:L28" si="114">RIGHT(DEC2HEX(K9/2),4)</f>
         <v>0</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="114"/>
-        <v>5A81</v>
-      </c>
-      <c r="M28" t="str">
+        <v>2D40</v>
+      </c>
+      <c r="M28" s="9" t="str">
         <f t="shared" ref="M28:N28" si="115">RIGHT(DEC2HEX(M9),5)</f>
         <v>5A81</v>
       </c>
-      <c r="N28" t="str">
+      <c r="N28" s="9" t="str">
         <f t="shared" si="115"/>
         <v>5A81</v>
       </c>
@@ -3198,14 +3217,14 @@
         <v>0</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" ref="Q28:R28" si="117">RIGHT(DEC2HEX(R9),5)</f>
+        <f t="shared" ref="R28" si="117">RIGHT(DEC2HEX(R9),5)</f>
         <v>7FFE</v>
       </c>
-      <c r="S28" t="str">
-        <f t="shared" ref="S28:T28" si="118">RIGHT(DEC2HEX(S9),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" t="str">
+      <c r="S28" s="9" t="str">
+        <f t="shared" ref="S28" si="118">RIGHT(DEC2HEX(S9),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="9" t="str">
         <f t="shared" si="58"/>
         <v>FFFC</v>
       </c>
@@ -3260,7 +3279,7 @@
         <v>187D</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:J29" si="122">RIGHT(DEC2HEX(G10),4)</f>
+        <f t="shared" ref="G29:H29" si="122">RIGHT(DEC2HEX(G10),4)</f>
         <v>0</v>
       </c>
       <c r="H29" t="str">
@@ -3276,18 +3295,18 @@
         <v>0</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ref="K29:L29" si="124">RIGHT(DEC2HEX(K10),5)</f>
+        <f t="shared" ref="K29:L29" si="124">RIGHT(DEC2HEX(K10/2),4)</f>
         <v>0</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M29" s="9" t="str">
         <f t="shared" ref="M29:N29" si="125">RIGHT(DEC2HEX(M10),5)</f>
         <v>0</v>
       </c>
-      <c r="N29" t="str">
+      <c r="N29" s="9" t="str">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
@@ -3304,14 +3323,14 @@
         <v>0</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="Q29:R29" si="127">RIGHT(DEC2HEX(R10),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" ref="S29:T29" si="128">RIGHT(DEC2HEX(S10),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" t="str">
+        <f t="shared" ref="R29" si="127">RIGHT(DEC2HEX(R10),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="9" t="str">
+        <f t="shared" ref="S29" si="128">RIGHT(DEC2HEX(S10),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>E783</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ref="G30:J30" si="132">RIGHT(DEC2HEX(G11),4)</f>
+        <f t="shared" ref="G30:H30" si="132">RIGHT(DEC2HEX(G11),4)</f>
         <v>30FB</v>
       </c>
       <c r="H30" t="str">
@@ -3382,18 +3401,18 @@
         <v>C001</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ref="K30:L30" si="134">RIGHT(DEC2HEX(K11),5)</f>
+        <f t="shared" ref="K30:L30" si="134">RIGHT(DEC2HEX(K11/2),4)</f>
         <v>0</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="134"/>
-        <v>F89C1</v>
-      </c>
-      <c r="M30" t="str">
+        <v>C4E1</v>
+      </c>
+      <c r="M30" s="9" t="str">
         <f t="shared" ref="M30:N30" si="135">RIGHT(DEC2HEX(M11),5)</f>
         <v>30FB</v>
       </c>
-      <c r="N30" t="str">
+      <c r="N30" s="9" t="str">
         <f t="shared" si="135"/>
         <v>F89C1</v>
       </c>
@@ -3410,14 +3429,14 @@
         <v>30FB</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" ref="Q30:R30" si="137">RIGHT(DEC2HEX(R11),5)</f>
+        <f t="shared" ref="R30" si="137">RIGHT(DEC2HEX(R11),5)</f>
         <v>F89C1</v>
       </c>
-      <c r="S30" t="str">
-        <f t="shared" ref="S30:T30" si="138">RIGHT(DEC2HEX(S11),6)</f>
+      <c r="S30" s="9" t="str">
+        <f t="shared" ref="S30" si="138">RIGHT(DEC2HEX(S11),6)</f>
         <v>61F6</v>
       </c>
-      <c r="T30" t="str">
+      <c r="T30" s="9" t="str">
         <f t="shared" si="58"/>
         <v>F1381</v>
       </c>
@@ -3472,7 +3491,7 @@
         <v>3B1F</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ref="G31:J31" si="142">RIGHT(DEC2HEX(G12),4)</f>
+        <f t="shared" ref="G31:H31" si="142">RIGHT(DEC2HEX(G12),4)</f>
         <v>0</v>
       </c>
       <c r="H31" t="str">
@@ -3488,18 +3507,18 @@
         <v>0</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" ref="K31:L31" si="144">RIGHT(DEC2HEX(K12),5)</f>
+        <f t="shared" ref="K31:L31" si="144">RIGHT(DEC2HEX(K12/2),4)</f>
         <v>0</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="144"/>
         <v>0</v>
       </c>
-      <c r="M31" t="str">
+      <c r="M31" s="9" t="str">
         <f t="shared" ref="M31:N31" si="145">RIGHT(DEC2HEX(M12),5)</f>
         <v>0</v>
       </c>
-      <c r="N31" t="str">
+      <c r="N31" s="9" t="str">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
@@ -3516,14 +3535,14 @@
         <v>0</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" ref="Q31:R31" si="147">RIGHT(DEC2HEX(R12),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" ref="S31:T31" si="148">RIGHT(DEC2HEX(S12),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" t="str">
+        <f t="shared" ref="R31" si="147">RIGHT(DEC2HEX(R12),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9" t="str">
+        <f t="shared" ref="S31" si="148">RIGHT(DEC2HEX(S12),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3578,7 +3597,7 @@
         <v>C4E1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ref="G32:J32" si="152">RIGHT(DEC2HEX(G13),4)</f>
+        <f t="shared" ref="G32:H32" si="152">RIGHT(DEC2HEX(G13),4)</f>
         <v>763F</v>
       </c>
       <c r="H32" t="str">
@@ -3594,18 +3613,18 @@
         <v>3FFF</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:L32" si="154">RIGHT(DEC2HEX(K13),5)</f>
+        <f t="shared" ref="K32:L32" si="154">RIGHT(DEC2HEX(K13/2),4)</f>
         <v>0</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="154"/>
-        <v>763F</v>
-      </c>
-      <c r="M32" t="str">
+        <v>3B1F</v>
+      </c>
+      <c r="M32" s="9" t="str">
         <f t="shared" ref="M32:N32" si="155">RIGHT(DEC2HEX(M13),5)</f>
         <v>30FB</v>
       </c>
-      <c r="N32" t="str">
+      <c r="N32" s="9" t="str">
         <f t="shared" si="155"/>
         <v>763F</v>
       </c>
@@ -3622,14 +3641,14 @@
         <v>FCF05</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" ref="Q32:R32" si="157">RIGHT(DEC2HEX(R13),5)</f>
+        <f t="shared" ref="R32" si="157">RIGHT(DEC2HEX(R13),5)</f>
         <v>F89C1</v>
       </c>
-      <c r="S32" t="str">
-        <f t="shared" ref="S32:T32" si="158">RIGHT(DEC2HEX(S13),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" t="str">
+      <c r="S32" s="9" t="str">
+        <f t="shared" ref="S32" si="158">RIGHT(DEC2HEX(S13),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>3B1F</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:J33" si="162">RIGHT(DEC2HEX(G14),4)</f>
+        <f t="shared" ref="G33:H33" si="162">RIGHT(DEC2HEX(G14),4)</f>
         <v>0</v>
       </c>
       <c r="H33" t="str">
@@ -3700,18 +3719,18 @@
         <v>0</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ref="K33:L33" si="164">RIGHT(DEC2HEX(K14),5)</f>
+        <f t="shared" ref="K33:L33" si="164">RIGHT(DEC2HEX(K14/2),4)</f>
         <v>0</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="9" t="str">
         <f t="shared" ref="M33:N33" si="165">RIGHT(DEC2HEX(M14),5)</f>
         <v>0</v>
       </c>
-      <c r="N33" t="str">
+      <c r="N33" s="9" t="str">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
@@ -3728,14 +3747,14 @@
         <v>0</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" ref="Q33:R33" si="167">RIGHT(DEC2HEX(R14),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" ref="S33:T33" si="168">RIGHT(DEC2HEX(S14),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" t="str">
+        <f t="shared" ref="R33" si="167">RIGHT(DEC2HEX(R14),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="9" t="str">
+        <f t="shared" ref="S33" si="168">RIGHT(DEC2HEX(S14),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3790,7 +3809,7 @@
         <v>C4E1</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:J34" si="172">RIGHT(DEC2HEX(G15),4)</f>
+        <f t="shared" ref="G34:H34" si="172">RIGHT(DEC2HEX(G15),4)</f>
         <v>763F</v>
       </c>
       <c r="H34" t="str">
@@ -3806,18 +3825,18 @@
         <v>C001</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:L34" si="174">RIGHT(DEC2HEX(K15),5)</f>
+        <f t="shared" ref="K34:L34" si="174">RIGHT(DEC2HEX(K15/2),4)</f>
         <v>0</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="174"/>
-        <v>FCF05</v>
-      </c>
-      <c r="M34" t="str">
+        <v>E783</v>
+      </c>
+      <c r="M34" s="9" t="str">
         <f t="shared" ref="M34:N34" si="175">RIGHT(DEC2HEX(M15),5)</f>
         <v>763F</v>
       </c>
-      <c r="N34" t="str">
+      <c r="N34" s="9" t="str">
         <f t="shared" si="175"/>
         <v>FCF05</v>
       </c>
@@ -3834,14 +3853,14 @@
         <v>FCF05</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" ref="Q34:R34" si="177">RIGHT(DEC2HEX(R15),5)</f>
+        <f t="shared" ref="R34" si="177">RIGHT(DEC2HEX(R15),5)</f>
         <v>763F</v>
       </c>
-      <c r="S34" t="str">
-        <f t="shared" ref="S34:T34" si="178">RIGHT(DEC2HEX(S15),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" t="str">
+      <c r="S34" s="9" t="str">
+        <f t="shared" ref="S34" si="178">RIGHT(DEC2HEX(S15),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -3896,7 +3915,7 @@
         <v>187D</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:J35" si="182">RIGHT(DEC2HEX(G16),4)</f>
+        <f t="shared" ref="G35:H35" si="182">RIGHT(DEC2HEX(G16),4)</f>
         <v>0</v>
       </c>
       <c r="H35" t="str">
@@ -3912,18 +3931,18 @@
         <v>0</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:L35" si="184">RIGHT(DEC2HEX(K16),5)</f>
+        <f t="shared" ref="K35:L35" si="184">RIGHT(DEC2HEX(K16/2),4)</f>
         <v>0</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35" s="9" t="str">
         <f t="shared" ref="M35:N35" si="185">RIGHT(DEC2HEX(M16),5)</f>
         <v>0</v>
       </c>
-      <c r="N35" t="str">
+      <c r="N35" s="9" t="str">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
@@ -3940,14 +3959,14 @@
         <v>0</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" ref="Q35:R35" si="187">RIGHT(DEC2HEX(R16),5)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" ref="S35:T35" si="188">RIGHT(DEC2HEX(S16),6)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" t="str">
+        <f t="shared" ref="R35" si="187">RIGHT(DEC2HEX(R16),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="9" t="str">
+        <f t="shared" ref="S35" si="188">RIGHT(DEC2HEX(S16),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="9" t="str">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -4002,7 +4021,7 @@
         <v>E783</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ref="G36:J36" si="192">RIGHT(DEC2HEX(G17),4)</f>
+        <f t="shared" ref="G36:H36" si="192">RIGHT(DEC2HEX(G17),4)</f>
         <v>30FB</v>
       </c>
       <c r="H36" t="str">
@@ -4018,18 +4037,18 @@
         <v>3FFF</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" ref="K36:L36" si="194">RIGHT(DEC2HEX(K17),5)</f>
+        <f t="shared" ref="K36:L36" si="194">RIGHT(DEC2HEX(K17/2),4)</f>
         <v>0</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="194"/>
-        <v>30FB</v>
-      </c>
-      <c r="M36" t="str">
+        <v>187D</v>
+      </c>
+      <c r="M36" s="9" t="str">
         <f t="shared" ref="M36:N36" si="195">RIGHT(DEC2HEX(M17),5)</f>
         <v>763F</v>
       </c>
-      <c r="N36" t="str">
+      <c r="N36" s="9" t="str">
         <f t="shared" si="195"/>
         <v>30FB</v>
       </c>
@@ -4046,14 +4065,14 @@
         <v>30FB</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" ref="Q36:R36" si="197">RIGHT(DEC2HEX(R17),5)</f>
+        <f t="shared" ref="R36" si="197">RIGHT(DEC2HEX(R17),5)</f>
         <v>763F</v>
       </c>
-      <c r="S36" t="str">
-        <f t="shared" ref="S36:T36" si="198">RIGHT(DEC2HEX(S17),6)</f>
+      <c r="S36" s="9" t="str">
+        <f t="shared" ref="S36" si="198">RIGHT(DEC2HEX(S17),6)</f>
         <v>61F6</v>
       </c>
-      <c r="T36" t="str">
+      <c r="T36" s="9" t="str">
         <f t="shared" si="58"/>
         <v>EC7F</v>
       </c>
@@ -4086,4 +4105,3572 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5246A5AF-FA95-4C18-B256-D0E4AC001D75}">
+  <dimension ref="A1:AG36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1">
+        <f>COS(-2*PI()*A2/8)</f>
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1">
+        <f>SIN(-2*PI()*A2/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <f>COS(-2*PI()*C2/16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1">
+        <f>SIN(-2*PI()*C2/16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>$B$19*SIN(2*PI()*A2/16)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>2*2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F17" si="0">2^14-1</f>
+        <v>16383</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2+F3</f>
+        <v>32766</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f>G4*I2-H4*J2</f>
+        <v>32766</v>
+      </c>
+      <c r="L2" s="2">
+        <f>G4*J2+H4*I2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>G2+K2</f>
+        <v>65532</v>
+      </c>
+      <c r="N2" s="9">
+        <f>H2+L2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>M6*O2-N6*P2</f>
+        <v>65532</v>
+      </c>
+      <c r="R2" s="2">
+        <f>M6*P2+N6*O2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="13">
+        <f>M2+Q2</f>
+        <v>131064</v>
+      </c>
+      <c r="T2" s="13">
+        <f>N2+R2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <f>S10*U2-T10*V2</f>
+        <v>131064</v>
+      </c>
+      <c r="X2" s="2">
+        <f>S10*V2+T10*U2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>S2+W2</f>
+        <v>262128</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>T2+X2</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <f t="shared" ref="AD2:AD8" si="1">COS(-2*PI()*A3/8)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AE2" s="1">
+        <f t="shared" ref="AE2:AE8" si="2">SIN(-2*PI()*A3/8)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2:AF16" si="3">COS(-2*PI()*C3/16)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AG2" s="1">
+        <f t="shared" ref="AG2:AG16" si="4">SIN(-2*PI()*C3/16)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B17" si="5">$B$19*SIN(2*PI()*A3/16)</f>
+        <v>6269.5026724372656</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C9" si="6">2*A3</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D5" si="7">2*2*A3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D4</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F2-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <f>G5*I3-H5*J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f>G5*J3+H5*I3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>G3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>H3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="P3" s="6">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="8">M7*O3-N7*P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R5" si="9">M7*P3+N7*O3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="13">
+        <f t="shared" ref="S3:T5" si="10">M3+Q3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="V3" s="6">
+        <v>-0.38268343236508978</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W9" si="11">S11*U3-T11*V3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X9" si="12">S11*V3+T11*U3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Z9" si="13">S3+W3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="5"/>
+        <v>11584.530396179207</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D3</f>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4+F5</f>
+        <v>32766</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>G4*I4-H4*J4</f>
+        <v>-32766</v>
+      </c>
+      <c r="L4" s="2">
+        <f>G4*J4+H4*I4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f>G2+K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <f>H2+L4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="V4" s="6">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="5"/>
+        <v>15135.918381132411</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F4-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <f>G5*I5-H5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f>G5*J5+H5*I5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f>G3+K5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>H3+L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="P5" s="6">
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="V5" s="6">
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>16383</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <f>2*(2*A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E17" si="14">D6</f>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6+F7</f>
+        <v>32766</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>G8*I6-H8*J6</f>
+        <v>32766</v>
+      </c>
+      <c r="L6" s="2">
+        <f>G8*J6+H8*I6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f>G6+K6</f>
+        <v>65532</v>
+      </c>
+      <c r="N6" s="9">
+        <f>H6+L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="Q6">
+        <f>M6*O6-N6*P6</f>
+        <v>-65532</v>
+      </c>
+      <c r="R6" s="2">
+        <f>M6*P6+N6*O6</f>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="S6" s="13">
+        <f>M2+Q6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <f>N2+R6</f>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="U6" s="5">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="V6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="11"/>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="12"/>
+        <v>-4.9181396942288099E-28</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="13"/>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="13"/>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>15135.918381132411</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D9" si="15">2*(2*A3+1)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D8</f>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F6-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="2">
+        <f>G9*I7-H9*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <f>G9*J7+H9*I7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f>G7+K7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f>H7+L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q9" si="16">M7*O7-N7*P7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R9" si="17">M7*P7+N7*O7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" ref="S7:T9" si="18">M3+Q7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>-0.38268343236508973</v>
+      </c>
+      <c r="V7" s="6">
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>11584.530396179209</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <f>D7</f>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8+F9</f>
+        <v>32766</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f>G8*I8-H8*J8</f>
+        <v>-32766</v>
+      </c>
+      <c r="L8" s="2">
+        <f>G8*J8+H8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f>G6+K8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>H6+L8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="V8" s="6">
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70710678118654768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>6269.5026724372674</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9</f>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G9" s="2">
+        <f>F8-F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <f>G9*I9-H9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f>G9*J9+H9*I9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <f>G7+K9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <f>H7+L9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="V9" s="8">
+        <v>-0.38268343236508989</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236508978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0071607136767922E-12</v>
+      </c>
+      <c r="C10" s="2">
+        <f>2*A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <f>2*(2*A2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10+F11</f>
+        <v>32766</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f>G12*I10-H12*J10</f>
+        <v>32766</v>
+      </c>
+      <c r="L10" s="2">
+        <f>G12*J10+H12*I10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <f>G10+K10</f>
+        <v>65532</v>
+      </c>
+      <c r="N10" s="9">
+        <f>H10+L10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>M14*O10-N14*P10</f>
+        <v>65532</v>
+      </c>
+      <c r="R10" s="2">
+        <f>M14*P10+N14*O10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
+        <f>M10+Q10</f>
+        <v>131064</v>
+      </c>
+      <c r="T10" s="13">
+        <f>N10+R10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="W10" s="2">
+        <f>S10*U10-T10*V10</f>
+        <v>-131064</v>
+      </c>
+      <c r="X10" s="2">
+        <f>S10*V10+T10*U10</f>
+        <v>-1.6057285709414337E-11</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>S2+W10</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>T2+X10</f>
+        <v>-1.6057285709414337E-11</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>-6269.5026724372638</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C17" si="19">2*A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D13" si="20">2*(2*A3)+1</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D12</f>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F10-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="2">
+        <f>G13*I11-H13*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f>G13*J11+H13*I11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f>G11+K11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>H11+L11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q13" si="21">M15*O11-N15*P11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11:R13" si="22">M15*P11+N15*O11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" ref="S11:T13" si="23">M11+Q11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.38268343236508967</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" ref="W11:W17" si="24">S11*U11-T11*V11</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" ref="X11:X17" si="25">S11*V11+T11*U11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" ref="Y11:Z17" si="26">S3+W11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.38268343236508973</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="5"/>
+        <v>-11584.530396179207</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <f>D11</f>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G12" s="2">
+        <f>F12+F13</f>
+        <v>32766</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f>G12*I12-H12*J12</f>
+        <v>-32766</v>
+      </c>
+      <c r="L12" s="2">
+        <f>G12*J12+H12*I12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f>G10+K12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>H10+L12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236508989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="5"/>
+        <v>-15135.918381132407</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G13" s="2">
+        <f>F12-F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f>G13*I13-H13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f>G13*J13+H13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f>G11+K13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>H11+L13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>-0.38268343236509034</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.92387953251128652</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38268343236508967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="5"/>
+        <v>-16383</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <f>2*(2*A2+1)+1</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14+F15</f>
+        <v>32766</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f>G16*I14-H16*J14</f>
+        <v>32766</v>
+      </c>
+      <c r="L14" s="2">
+        <f>G16*J14+H16*I14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f>G14+K14</f>
+        <v>65532</v>
+      </c>
+      <c r="N14" s="9">
+        <f>H14+L14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="Q14">
+        <f>M14*O14-N14*P14</f>
+        <v>-65532</v>
+      </c>
+      <c r="R14" s="2">
+        <f>M14*P14+N14*O14</f>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="S14" s="13">
+        <f>M10+Q14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <f>N10+R14</f>
+        <v>-8.0286428547071687E-12</v>
+      </c>
+      <c r="U14" s="5">
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="24"/>
+        <v>8.0286428547071687E-12</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="25"/>
+        <v>1.475441908268643E-27</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="26"/>
+        <v>8.0286428547071687E-12</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="26"/>
+        <v>-8.028642854707167E-12</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.38268343236509034</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92387953251128652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="5"/>
+        <v>-15135.918381132409</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D17" si="27">2*(2*A3+1)+1</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <f>D16</f>
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G15" s="2">
+        <f>F14-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="2">
+        <f>G17*I15-H17*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f>G17*J15+H17*I15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f>G15+K15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>H15+L15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q17" si="28">M15*O15-N15*P15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" ref="R15:R17" si="29">M15*P15+N15*O15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" ref="S15:T17" si="30">M11+Q15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.38268343236509</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0.92387953251128663</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38268343236509</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92387953251128663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="5"/>
+        <v>-11584.530396179211</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D15</f>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G16" s="2">
+        <f>F16+F17</f>
+        <v>32766</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f>G16*I16-H16*J16</f>
+        <v>-32766</v>
+      </c>
+      <c r="L16" s="2">
+        <f>G16*J16+H16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f>G14+K16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>H14+L16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92387953251128652</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38268343236509039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="5"/>
+        <v>-6269.5026724372756</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16383</v>
+      </c>
+      <c r="G17" s="2">
+        <f>F16-F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <f>G17*I17-H17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f>G17*J17+H17*I17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f>G15+K17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f>H15+L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.92387953251128652</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.38268343236509039</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>2^14-1</f>
+        <v>16383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>RIGHT(DEC2HEX(A2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="B21" t="str">
+        <f>RIGHT(DEC2HEX(B2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:E21" si="31">RIGHT(DEC2HEX(C2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f>RIGHT(DEC2HEX(F2),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:H36" si="32">RIGHT(DEC2HEX(G2),4)</f>
+        <v>7FFE</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*I2),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="J21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*J2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <f>RIGHT(DEC2HEX(K2/2),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="L21" t="str">
+        <f>RIGHT(DEC2HEX(L2/2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="str">
+        <f t="shared" ref="M21:N36" si="33">RIGHT(DEC2HEX(M2),5)</f>
+        <v>FFFC</v>
+      </c>
+      <c r="N21" s="9" t="str">
+        <f>RIGHT(DEC2HEX(N2),5)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*O2),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="P21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*P2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>RIGHT(DEC2HEX(Q2),5)</f>
+        <v>FFFC</v>
+      </c>
+      <c r="R21" t="str">
+        <f>RIGHT(DEC2HEX(R2),5)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="9" t="str">
+        <f>RIGHT(DEC2HEX(S2),6)</f>
+        <v>1FFF8</v>
+      </c>
+      <c r="T21" s="9" t="str">
+        <f>RIGHT(DEC2HEX(T2),5)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*U2),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="V21" t="str">
+        <f>RIGHT(DEC2HEX($B$19*V2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" t="str">
+        <f>RIGHT(DEC2HEX(W2),7)</f>
+        <v>1FFF8</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" ref="X21:Z21" si="34">RIGHT(DEC2HEX(X2),7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="34"/>
+        <v>3FFF0</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:F36" si="35">RIGHT(DEC2HEX(A3),4)</f>
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="35"/>
+        <v>187D</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:J36" si="36">RIGHT(DEC2HEX($B$19*I3),4)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:L36" si="37">RIGHT(DEC2HEX(K3/2),4)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ref="O22:P36" si="38">RIGHT(DEC2HEX($B$19*O3),4)</f>
+        <v>2D40</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22:R36" si="39">RIGHT(DEC2HEX(Q3),5)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f t="shared" ref="S22:S36" si="40">RIGHT(DEC2HEX(S3),6)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="9" t="str">
+        <f t="shared" ref="T22:T36" si="41">RIGHT(DEC2HEX(T3),5)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ref="U22:V36" si="42">RIGHT(DEC2HEX($B$19*U3),4)</f>
+        <v>3B1F</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="42"/>
+        <v>E783</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ref="W22:Z36" si="43">RIGHT(DEC2HEX(W3),7)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="35"/>
+        <v>2D40</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="37"/>
+        <v>C001</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="38"/>
+        <v>C001</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="42"/>
+        <v>2D40</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="42"/>
+        <v>D2C0</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="35"/>
+        <v>3B1F</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="35"/>
+        <v>C</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="35"/>
+        <v>C</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="42"/>
+        <v>187D</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="42"/>
+        <v>C4E1</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="37"/>
+        <v>3FFF</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>FFFC</v>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="38"/>
+        <v>C001</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="39"/>
+        <v>F0004</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="42"/>
+        <v>C001</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="35"/>
+        <v>3B1F</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="35"/>
+        <v>A</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="35"/>
+        <v>A</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="42"/>
+        <v>E783</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="42"/>
+        <v>C4E1</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="35"/>
+        <v>2D40</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="35"/>
+        <v>C</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="35"/>
+        <v>A</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="37"/>
+        <v>C001</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="38"/>
+        <v>3FFF</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="42"/>
+        <v>D2C0</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="42"/>
+        <v>D2C0</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="35"/>
+        <v>187D</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="35"/>
+        <v>E</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="35"/>
+        <v>E</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="35"/>
+        <v>E</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="42"/>
+        <v>C4E1</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="42"/>
+        <v>E783</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="37"/>
+        <v>3FFF</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>FFFC</v>
+      </c>
+      <c r="N29" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="38"/>
+        <v>3FFF</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="39"/>
+        <v>FFFC</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>1FFF8</v>
+      </c>
+      <c r="T29" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="42"/>
+        <v>C001</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="43"/>
+        <v>FFE0008</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="35"/>
+        <v>E783</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="42"/>
+        <v>C4E1</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="42"/>
+        <v>187D</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="35"/>
+        <v>A</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="35"/>
+        <v>D2C0</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="37"/>
+        <v>C001</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="38"/>
+        <v>C001</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="42"/>
+        <v>D2C0</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="42"/>
+        <v>2D40</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="35"/>
+        <v>B</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="35"/>
+        <v>C4E1</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="35"/>
+        <v>D</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="35"/>
+        <v>D</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="42"/>
+        <v>E783</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="42"/>
+        <v>3B1F</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="35"/>
+        <v>C</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="35"/>
+        <v>C001</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="37"/>
+        <v>3FFF</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>FFFC</v>
+      </c>
+      <c r="N33" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="38"/>
+        <v>C001</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="39"/>
+        <v>F0004</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="42"/>
+        <v>3FFF</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="35"/>
+        <v>D</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="35"/>
+        <v>C4E1</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="35"/>
+        <v>B</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="35"/>
+        <v>B</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="38"/>
+        <v>D2C0</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="42"/>
+        <v>187D</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="42"/>
+        <v>3B1F</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>RIGHT(DEC2HEX(A16),4)</f>
+        <v>E</v>
+      </c>
+      <c r="B35" t="str">
+        <f>RIGHT(DEC2HEX(B16),4)</f>
+        <v>D2C0</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="35"/>
+        <v>D</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="35"/>
+        <v>B</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="F35" t="str">
+        <f>RIGHT(DEC2HEX(F16),4)</f>
+        <v>3FFF</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="32"/>
+        <v>7FFE</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="36"/>
+        <v>C001</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="37"/>
+        <v>C001</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="38"/>
+        <v>3FFF</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="42"/>
+        <v>2D40</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="42"/>
+        <v>2D40</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="35"/>
+        <v>F</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="35"/>
+        <v>E783</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="35"/>
+        <v>F</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="35"/>
+        <v>F</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="35"/>
+        <v>F</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="35"/>
+        <v>3FFF</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="36"/>
+        <v>3FFF</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="38"/>
+        <v>2D40</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="42"/>
+        <v>3B1F</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="42"/>
+        <v>187D</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>